--- a/results/Homeopathy_excluded/mod2.galtan_corrupt.corrupt.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan_corrupt.corrupt.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0629772326356327</v>
+        <v>-0.0629776016485144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0490271798775864</v>
+        <v>0.0490268198214202</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.159068739459269</v>
+        <v>-0.159068402775032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0331142741880034</v>
+        <v>0.0331131994780036</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.28453712395609</v>
+        <v>-1.28455408443603</v>
       </c>
       <c r="H2" t="n">
-        <v>0.198954082705741</v>
+        <v>0.198948152458706</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27801394161513</v>
+        <v>0.278012853261979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.118542499741982</v>
+        <v>0.118541472667201</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0456749114834964</v>
+        <v>0.0456758361599264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.510352971746763</v>
+        <v>0.510349870364031</v>
       </c>
       <c r="G3" t="n">
-        <v>2.34526808714386</v>
+        <v>2.34527922596749</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0190134028955931</v>
+        <v>0.0190128348246593</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0886682153971538</v>
+        <v>-0.0886670811229918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0531792904614081</v>
+        <v>0.0531789278794007</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.192897709424908</v>
+        <v>-0.19289586450307</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0155612786306005</v>
+        <v>0.0155617022570865</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.66734483720688</v>
+        <v>-1.66733487602592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0954458558490953</v>
+        <v>0.095447835445887</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.126368493582343</v>
+        <v>-0.126368170490473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0434349350384801</v>
+        <v>0.0434346106313727</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.211499401928601</v>
+        <v>-0.211498443010484</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0412375852360853</v>
+        <v>-0.0412378979704618</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.90937452698825</v>
+        <v>-2.90938881812371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00362152724131724</v>
+        <v>0.00362136167819664</v>
       </c>
     </row>
   </sheetData>
